--- a/schedule/Schedule_BSc_SE_Sevik.xlsx
+++ b/schedule/Schedule_BSc_SE_Sevik.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76685693-C7B5-43DB-8682-FF0C0BB44655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A14678-1BB8-445F-8098-55B0FDBCC488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" tabRatio="330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan BA" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Preparatory phase</t>
+  </si>
+  <si>
+    <t>Intermediate Presentation</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1190,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1406,6 +1409,49 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1415,54 +1461,17 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2016,11 +2025,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BR46"/>
+  <dimension ref="A1:BR47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BO9" sqref="BO9"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2070,17 +2079,17 @@
       <c r="D3" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="81">
+      <c r="E3" s="88">
         <v>44711</v>
       </c>
-      <c r="F3" s="82"/>
+      <c r="F3" s="89"/>
       <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="84">
+      <c r="M3" s="94">
         <v>2</v>
       </c>
-      <c r="N3" s="84"/>
+      <c r="N3" s="94"/>
     </row>
     <row r="4" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
@@ -2092,111 +2101,111 @@
       <c r="D4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="88">
         <f>Projektanfang+184</f>
         <v>44895</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="H4" s="76">
+      <c r="F4" s="89"/>
+      <c r="H4" s="91">
         <f>H5</f>
         <v>44718</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="76">
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="91">
         <f>O5</f>
         <v>44725</v>
       </c>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="76">
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="91">
         <f>V5</f>
         <v>44732</v>
       </c>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="76">
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="91">
         <f>AC5</f>
         <v>44739</v>
       </c>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="76">
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="91">
         <f>AJ5</f>
         <v>44746</v>
       </c>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="76">
+      <c r="AK4" s="92"/>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="91">
         <f>AQ5</f>
         <v>44753</v>
       </c>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="78"/>
-      <c r="AX4" s="76">
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="91">
         <f>AX5</f>
         <v>44760</v>
       </c>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="76">
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="91">
         <f>BE5</f>
         <v>44767</v>
       </c>
-      <c r="BF4" s="77"/>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="77"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="77"/>
-      <c r="BK4" s="78"/>
-      <c r="BL4" s="76">
+      <c r="BF4" s="92"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="91">
         <f>BL5</f>
         <v>44774</v>
       </c>
-      <c r="BM4" s="77"/>
-      <c r="BN4" s="77"/>
-      <c r="BO4" s="77"/>
-      <c r="BP4" s="77"/>
-      <c r="BQ4" s="77"/>
-      <c r="BR4" s="78"/>
+      <c r="BM4" s="92"/>
+      <c r="BN4" s="92"/>
+      <c r="BO4" s="92"/>
+      <c r="BP4" s="92"/>
+      <c r="BQ4" s="92"/>
+      <c r="BR4" s="93"/>
     </row>
     <row r="5" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
       <c r="H5" s="39">
         <f>Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
         <v>44718</v>
@@ -3222,15 +3231,15 @@
       <c r="A13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="88"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="12"/>
       <c r="E13" s="34"/>
       <c r="F13" s="35"/>
       <c r="G13" s="11" t="str">
-        <f t="shared" ref="G13:G43" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="G13:G44" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="H13" s="24"/>
@@ -3301,10 +3310,10 @@
       <c r="A14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="13">
         <v>1</v>
       </c>
@@ -3387,10 +3396,10 @@
       <c r="A15" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="13">
         <v>0.9</v>
       </c>
@@ -3472,10 +3481,10 @@
     </row>
     <row r="16" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28"/>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="89"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="13">
         <v>1</v>
       </c>
@@ -3559,10 +3568,10 @@
       <c r="A17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="16"/>
       <c r="E17" s="48"/>
       <c r="F17" s="49"/>
@@ -3636,10 +3645,10 @@
     </row>
     <row r="18" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28"/>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="91"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="17">
         <v>1</v>
       </c>
@@ -3720,10 +3729,10 @@
     </row>
     <row r="19" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28"/>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="91"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="17">
         <v>0.4</v>
       </c>
@@ -3805,10 +3814,10 @@
     </row>
     <row r="20" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28"/>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="91"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="17">
         <v>0.1</v>
       </c>
@@ -3890,10 +3899,10 @@
     </row>
     <row r="21" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28"/>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="91"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="17">
         <v>0.1</v>
       </c>
@@ -3975,10 +3984,10 @@
     </row>
     <row r="22" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28"/>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="91"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="17">
         <v>0</v>
       </c>
@@ -4060,17 +4069,21 @@
     </row>
     <row r="23" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28"/>
-      <c r="B23" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="B23" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="50">
+        <v>44749</v>
+      </c>
+      <c r="F23" s="50">
+        <f>E23+0</f>
+        <v>44749</v>
+      </c>
+      <c r="G23" s="11"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -4130,31 +4143,23 @@
       <c r="BL23" s="24"/>
       <c r="BM23" s="24"/>
       <c r="BN23" s="69"/>
-      <c r="BO23" s="70"/>
+      <c r="BO23" s="97"/>
       <c r="BP23" s="68"/>
       <c r="BQ23" s="24"/>
       <c r="BR23" s="24"/>
     </row>
     <row r="24" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28"/>
-      <c r="B24" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="55">
-        <v>0</v>
-      </c>
-      <c r="E24" s="56">
-        <f>F22+1</f>
-        <v>44742</v>
-      </c>
-      <c r="F24" s="56">
-        <f>E24+19</f>
-        <v>44761</v>
-      </c>
-      <c r="G24" s="11">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>20</v>
+      <c r="B24" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4222,23 +4227,23 @@
     </row>
     <row r="25" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28"/>
-      <c r="B25" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="93"/>
+      <c r="B25" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="84"/>
       <c r="D25" s="55">
         <v>0</v>
       </c>
       <c r="E25" s="56">
-        <f>F24+1</f>
-        <v>44762</v>
+        <f>F22+1</f>
+        <v>44742</v>
       </c>
       <c r="F25" s="56">
         <f>E25+19</f>
-        <v>44781</v>
+        <v>44761</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="11"/>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>20</v>
       </c>
       <c r="H25" s="24"/>
@@ -4307,20 +4312,20 @@
     </row>
     <row r="26" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28"/>
-      <c r="B26" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="93"/>
+      <c r="B26" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="84"/>
       <c r="D26" s="55">
         <v>0</v>
       </c>
       <c r="E26" s="56">
         <f>F25+1</f>
-        <v>44782</v>
+        <v>44762</v>
       </c>
       <c r="F26" s="56">
         <f>E26+19</f>
-        <v>44801</v>
+        <v>44781</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="11"/>
@@ -4391,19 +4396,25 @@
       <c r="BR26" s="24"/>
     </row>
     <row r="27" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="11" t="str">
+      <c r="A27" s="28"/>
+      <c r="B27" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="84"/>
+      <c r="D27" s="55">
+        <v>0</v>
+      </c>
+      <c r="E27" s="56">
+        <f>F26+1</f>
+        <v>44782</v>
+      </c>
+      <c r="F27" s="56">
+        <f>E27+19</f>
+        <v>44801</v>
+      </c>
+      <c r="G27" s="11">
         <f t="shared" si="11"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -4470,24 +4481,19 @@
       <c r="BR27" s="24"/>
     </row>
     <row r="28" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28"/>
-      <c r="B28" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="44">
-        <v>44757</v>
-      </c>
-      <c r="F28" s="44">
-        <f>E28+2</f>
-        <v>44759</v>
-      </c>
-      <c r="G28" s="11">
+      <c r="A28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="82"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="11" t="str">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4555,24 +4561,23 @@
     </row>
     <row r="29" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28"/>
-      <c r="B29" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="89"/>
+      <c r="B29" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="80"/>
       <c r="D29" s="13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E29" s="44">
-        <f>F28+1</f>
-        <v>44760</v>
+        <v>44757</v>
       </c>
       <c r="F29" s="44">
-        <f>E29+13</f>
-        <v>44773</v>
+        <f>E29+2</f>
+        <v>44759</v>
       </c>
       <c r="G29" s="11">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -4640,24 +4645,24 @@
     </row>
     <row r="30" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="28"/>
-      <c r="B30" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="89"/>
+      <c r="B30" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="80"/>
       <c r="D30" s="13">
         <v>0</v>
       </c>
       <c r="E30" s="44">
         <f>F29+1</f>
-        <v>44774</v>
+        <v>44760</v>
       </c>
       <c r="F30" s="44">
-        <f>E30+29</f>
-        <v>44803</v>
+        <f>E30+13</f>
+        <v>44773</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -4725,24 +4730,24 @@
     </row>
     <row r="31" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28"/>
-      <c r="B31" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="89"/>
+      <c r="B31" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="80"/>
       <c r="D31" s="13">
         <v>0</v>
       </c>
       <c r="E31" s="44">
         <f>F30+1</f>
-        <v>44804</v>
+        <v>44774</v>
       </c>
       <c r="F31" s="44">
-        <f>E31+19</f>
-        <v>44823</v>
+        <f>E31+29</f>
+        <v>44803</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -4810,24 +4815,24 @@
     </row>
     <row r="32" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28"/>
-      <c r="B32" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="89"/>
+      <c r="B32" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="80"/>
       <c r="D32" s="13">
         <v>0</v>
       </c>
       <c r="E32" s="44">
         <f>F31+1</f>
-        <v>44824</v>
+        <v>44804</v>
       </c>
       <c r="F32" s="44">
-        <f>E32+6</f>
-        <v>44830</v>
+        <f>E32+19</f>
+        <v>44823</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -4895,14 +4900,25 @@
     </row>
     <row r="33" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28"/>
-      <c r="B33" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="11"/>
+      <c r="B33" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="80"/>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="44">
+        <f>F32+1</f>
+        <v>44824</v>
+      </c>
+      <c r="F33" s="44">
+        <f>E33+6</f>
+        <v>44830</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
@@ -4969,25 +4985,14 @@
     </row>
     <row r="34" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="28"/>
-      <c r="B34" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="19">
-        <v>0</v>
-      </c>
-      <c r="E34" s="53">
-        <f>F32</f>
-        <v>44830</v>
-      </c>
-      <c r="F34" s="53">
-        <f>E34+1</f>
-        <v>44831</v>
-      </c>
-      <c r="G34" s="11">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
+      <c r="B34" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="81"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
@@ -5054,24 +5059,24 @@
     </row>
     <row r="35" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="28"/>
-      <c r="B35" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="95"/>
+      <c r="B35" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="77"/>
       <c r="D35" s="19">
         <v>0</v>
       </c>
       <c r="E35" s="53">
-        <f>F34</f>
+        <f>F33</f>
+        <v>44830</v>
+      </c>
+      <c r="F35" s="53">
+        <f>E35+1</f>
         <v>44831</v>
-      </c>
-      <c r="F35" s="53">
-        <f>E35+2</f>
-        <v>44833</v>
       </c>
       <c r="G35" s="11">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -5139,20 +5144,20 @@
     </row>
     <row r="36" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="28"/>
-      <c r="B36" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="95"/>
+      <c r="B36" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="77"/>
       <c r="D36" s="19">
         <v>0</v>
       </c>
       <c r="E36" s="53">
         <f>F35</f>
-        <v>44833</v>
+        <v>44831</v>
       </c>
       <c r="F36" s="53">
         <f>E36+2</f>
-        <v>44835</v>
+        <v>44833</v>
       </c>
       <c r="G36" s="11">
         <f t="shared" si="11"/>
@@ -5224,24 +5229,24 @@
     </row>
     <row r="37" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="28"/>
-      <c r="B37" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="95"/>
+      <c r="B37" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="77"/>
       <c r="D37" s="19">
         <v>0</v>
       </c>
       <c r="E37" s="53">
         <f>F36</f>
+        <v>44833</v>
+      </c>
+      <c r="F37" s="53">
+        <f>E37+2</f>
         <v>44835</v>
       </c>
-      <c r="F37" s="53">
-        <f>E37+1</f>
-        <v>44836</v>
-      </c>
       <c r="G37" s="11">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5309,14 +5314,25 @@
     </row>
     <row r="38" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28"/>
-      <c r="B38" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="11"/>
+      <c r="B38" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="19">
+        <v>0</v>
+      </c>
+      <c r="E38" s="53">
+        <f>F37</f>
+        <v>44835</v>
+      </c>
+      <c r="F38" s="53">
+        <f>E38+1</f>
+        <v>44836</v>
+      </c>
+      <c r="G38" s="11">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>2</v>
+      </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
@@ -5383,25 +5399,14 @@
     </row>
     <row r="39" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="28"/>
-      <c r="B39" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="17">
-        <v>0</v>
-      </c>
-      <c r="E39" s="50">
-        <f>F37+1</f>
-        <v>44837</v>
-      </c>
-      <c r="F39" s="50">
-        <f>E39+4</f>
-        <v>44841</v>
-      </c>
-      <c r="G39" s="11">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>5</v>
-      </c>
+      <c r="B39" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="78"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
@@ -5468,24 +5473,24 @@
     </row>
     <row r="40" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="28"/>
-      <c r="B40" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="91"/>
+      <c r="B40" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="79"/>
       <c r="D40" s="17">
         <v>0</v>
       </c>
       <c r="E40" s="50">
-        <f>F39+1</f>
-        <v>44842</v>
+        <f>F38+1</f>
+        <v>44837</v>
       </c>
       <c r="F40" s="50">
-        <f>E40+0</f>
-        <v>44842</v>
+        <f>E40+4</f>
+        <v>44841</v>
       </c>
       <c r="G40" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -5553,23 +5558,23 @@
     </row>
     <row r="41" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="28"/>
-      <c r="B41" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="91"/>
+      <c r="B41" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="79"/>
       <c r="D41" s="17">
         <v>0</v>
       </c>
       <c r="E41" s="50">
-        <f>F40+10</f>
-        <v>44852</v>
+        <f>F40+1</f>
+        <v>44842</v>
       </c>
       <c r="F41" s="50">
         <f>E41+0</f>
-        <v>44852</v>
+        <v>44842</v>
       </c>
       <c r="G41" s="11">
-        <f t="shared" si="11"/>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>1</v>
       </c>
       <c r="H41" s="24"/>
@@ -5638,12 +5643,25 @@
     </row>
     <row r="42" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="28"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="11"/>
+      <c r="B42" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="79"/>
+      <c r="D42" s="17">
+        <v>0</v>
+      </c>
+      <c r="E42" s="50">
+        <f>F41+10</f>
+        <v>44852</v>
+      </c>
+      <c r="F42" s="50">
+        <f>E42+0</f>
+        <v>44852</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
@@ -5709,128 +5727,171 @@
       <c r="BR42" s="24"/>
     </row>
     <row r="43" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="24"/>
+      <c r="AF43" s="24"/>
+      <c r="AG43" s="24"/>
+      <c r="AH43" s="24"/>
+      <c r="AI43" s="24"/>
+      <c r="AJ43" s="24"/>
+      <c r="AK43" s="24"/>
+      <c r="AL43" s="24"/>
+      <c r="AM43" s="24"/>
+      <c r="AN43" s="24"/>
+      <c r="AO43" s="24"/>
+      <c r="AP43" s="24"/>
+      <c r="AQ43" s="24"/>
+      <c r="AR43" s="24"/>
+      <c r="AS43" s="24"/>
+      <c r="AT43" s="24"/>
+      <c r="AU43" s="24"/>
+      <c r="AV43" s="24"/>
+      <c r="AW43" s="24"/>
+      <c r="AX43" s="24"/>
+      <c r="AY43" s="24"/>
+      <c r="AZ43" s="24"/>
+      <c r="BA43" s="24"/>
+      <c r="BB43" s="24"/>
+      <c r="BC43" s="24"/>
+      <c r="BD43" s="24"/>
+      <c r="BE43" s="24"/>
+      <c r="BF43" s="24"/>
+      <c r="BG43" s="24"/>
+      <c r="BH43" s="24"/>
+      <c r="BI43" s="24"/>
+      <c r="BJ43" s="24"/>
+      <c r="BK43" s="24"/>
+      <c r="BL43" s="24"/>
+      <c r="BM43" s="24"/>
+      <c r="BN43" s="69"/>
+      <c r="BO43" s="70"/>
+      <c r="BP43" s="68"/>
+      <c r="BQ43" s="24"/>
+      <c r="BR43" s="24"/>
+    </row>
+    <row r="44" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="23" t="str">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="23" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="26"/>
-      <c r="AL43" s="26"/>
-      <c r="AM43" s="26"/>
-      <c r="AN43" s="26"/>
-      <c r="AO43" s="26"/>
-      <c r="AP43" s="26"/>
-      <c r="AQ43" s="26"/>
-      <c r="AR43" s="26"/>
-      <c r="AS43" s="26"/>
-      <c r="AT43" s="26"/>
-      <c r="AU43" s="26"/>
-      <c r="AV43" s="26"/>
-      <c r="AW43" s="26"/>
-      <c r="AX43" s="26"/>
-      <c r="AY43" s="26"/>
-      <c r="AZ43" s="26"/>
-      <c r="BA43" s="26"/>
-      <c r="BB43" s="26"/>
-      <c r="BC43" s="26"/>
-      <c r="BD43" s="26"/>
-      <c r="BE43" s="26"/>
-      <c r="BF43" s="26"/>
-      <c r="BG43" s="26"/>
-      <c r="BH43" s="26"/>
-      <c r="BI43" s="26"/>
-      <c r="BJ43" s="26"/>
-      <c r="BK43" s="26"/>
-      <c r="BL43" s="26"/>
-      <c r="BM43" s="26"/>
-      <c r="BN43" s="72"/>
-      <c r="BO43" s="73"/>
-      <c r="BP43" s="71"/>
-      <c r="BQ43" s="26"/>
-      <c r="BR43" s="26"/>
-    </row>
-    <row r="45" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="C45" s="8"/>
-      <c r="F45" s="30"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="26"/>
+      <c r="AM44" s="26"/>
+      <c r="AN44" s="26"/>
+      <c r="AO44" s="26"/>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="26"/>
+      <c r="AR44" s="26"/>
+      <c r="AS44" s="26"/>
+      <c r="AT44" s="26"/>
+      <c r="AU44" s="26"/>
+      <c r="AV44" s="26"/>
+      <c r="AW44" s="26"/>
+      <c r="AX44" s="26"/>
+      <c r="AY44" s="26"/>
+      <c r="AZ44" s="26"/>
+      <c r="BA44" s="26"/>
+      <c r="BB44" s="26"/>
+      <c r="BC44" s="26"/>
+      <c r="BD44" s="26"/>
+      <c r="BE44" s="26"/>
+      <c r="BF44" s="26"/>
+      <c r="BG44" s="26"/>
+      <c r="BH44" s="26"/>
+      <c r="BI44" s="26"/>
+      <c r="BJ44" s="26"/>
+      <c r="BK44" s="26"/>
+      <c r="BL44" s="26"/>
+      <c r="BM44" s="26"/>
+      <c r="BN44" s="72"/>
+      <c r="BO44" s="73"/>
+      <c r="BP44" s="71"/>
+      <c r="BQ44" s="26"/>
+      <c r="BR44" s="26"/>
     </row>
     <row r="46" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46"/>
-      <c r="C46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="C47" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -5838,14 +5899,43 @@
     <mergeCell ref="AX4:BD4"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
   </mergeCells>
-  <conditionalFormatting sqref="D42:D43 D24:D26 D13:D22">
+  <conditionalFormatting sqref="D43:D44 D25:D27 D13:D23">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5859,12 +5949,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BR43">
+  <conditionalFormatting sqref="H5:BR44">
     <cfRule type="expression" dxfId="2" priority="44">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BR43">
+  <conditionalFormatting sqref="H7:BR44">
     <cfRule type="expression" dxfId="1" priority="38">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
@@ -5872,7 +5962,7 @@
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D37">
+  <conditionalFormatting sqref="D34:D38">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5886,7 +5976,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D32">
+  <conditionalFormatting sqref="D28:D33">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5900,7 +5990,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
+  <conditionalFormatting sqref="D39:D42">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5914,7 +6004,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D24">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5972,7 +6062,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D42:D43 D24:D26 D13:D22</xm:sqref>
+          <xm:sqref>D43:D44 D25:D27 D13:D23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA2947BC-B1C9-47B5-8F9A-8C52A3D7A76A}">
@@ -5987,7 +6077,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33:D37</xm:sqref>
+          <xm:sqref>D34:D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ADEDD167-DD83-4BF0-A90D-37F3F6C69EA2}">
@@ -6002,7 +6092,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D27:D32</xm:sqref>
+          <xm:sqref>D28:D33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{482AC7A9-4381-4671-8BC2-3F96B03A7C1C}">
@@ -6017,7 +6107,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38:D41</xm:sqref>
+          <xm:sqref>D39:D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CB49FACF-4754-47A1-9391-125CD857A095}">
@@ -6032,7 +6122,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D23</xm:sqref>
+          <xm:sqref>D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6D28A95A-46EF-4DF7-B76C-690B87E70FFE}">

--- a/schedule/Schedule_BSc_SE_Sevik.xlsx
+++ b/schedule/Schedule_BSc_SE_Sevik.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A14678-1BB8-445F-8098-55B0FDBCC488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABFCE41-5977-4FB8-839D-AF7A749FF997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" tabRatio="330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan BA" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Zeitplan BA'!$4:$6</definedName>
     <definedName name="Heute" localSheetId="0">TODAY()</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Zeitplan BA'!$4:$6</definedName>
     <definedName name="Projektanfang">'Zeitplan BA'!$E$3</definedName>
     <definedName name="task_end" localSheetId="0">'Zeitplan BA'!$F1</definedName>
     <definedName name="task_progress" localSheetId="0">'Zeitplan BA'!$D1</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -147,9 +147,6 @@
     <t>Select Latex Editor</t>
   </si>
   <si>
-    <t>"How are different Asynchronous Programming Constructs in JavaScript related to Software Quality? A Repository Mining Study on GitHub"</t>
-  </si>
-  <si>
     <t>Select reference management</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Objectives and tasks</t>
   </si>
   <si>
-    <t>Sampling strategy (how select projects, automated)</t>
-  </si>
-  <si>
     <t>Data Collection</t>
   </si>
   <si>
@@ -247,6 +241,15 @@
   </si>
   <si>
     <t>Intermediate Presentation</t>
+  </si>
+  <si>
+    <t>"How Are Different Asynchronous Programming Constructs in JavaScript Related to Software Quality? A Repository Mining Study on GitHub"</t>
+  </si>
+  <si>
+    <t>Sampling strategy (how select relevant project)</t>
+  </si>
+  <si>
+    <t>Study Design</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1193,7 @@
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1412,123 +1415,126 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="17" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="18" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
-    <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="43" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="47" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="51" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="32" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="36" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="40" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="44" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="48" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="52" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="41" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="45" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="49" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="53" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="30" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="42" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="46" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="50" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="35" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="39" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="43" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="47" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="51" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="32" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="36" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="40" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="44" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="48" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="52" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="33" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="37" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="41" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="45" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="49" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="53" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="30" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="34" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="38" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="42" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="46" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="50" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Aufgabe" xfId="12" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Bad" xfId="19" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="23" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="25" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="14" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="15" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="16" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="22" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="23" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" customBuiltin="1"/>
     <cellStyle name="Datum" xfId="10" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="18" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="17" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="21" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="24" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Dezimal [0]" xfId="14" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="21" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="29" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="18" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Komma" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Name" xfId="11" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Neutral" xfId="20" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="27" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="22" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="27" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Projektanfang" xfId="9" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="19" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Überschrift" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="17" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="24" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Währung" xfId="15" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Währung [0]" xfId="16" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zAusgeblText" xfId="3" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Zelle überprüfen" xfId="25" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2025,21 +2031,21 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BR47"/>
+  <dimension ref="A1:BR48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="28" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="63" width="3.109375" customWidth="1"/>
     <col min="64" max="70" width="3" customWidth="1"/>
@@ -2064,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="H2" s="31"/>
     </row>
@@ -2079,17 +2085,17 @@
       <c r="D3" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="88">
+      <c r="E3" s="84">
         <v>44711</v>
       </c>
-      <c r="F3" s="89"/>
+      <c r="F3" s="85"/>
       <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="94">
-        <v>2</v>
-      </c>
-      <c r="N3" s="94"/>
+      <c r="M3" s="87">
+        <v>27</v>
+      </c>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
@@ -2101,362 +2107,362 @@
       <c r="D4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="88">
-        <f>Projektanfang+184</f>
-        <v>44895</v>
-      </c>
-      <c r="F4" s="89"/>
-      <c r="H4" s="91">
+      <c r="E4" s="84">
+        <f>Projektanfang+274</f>
+        <v>44985</v>
+      </c>
+      <c r="F4" s="85"/>
+      <c r="H4" s="79">
         <f>H5</f>
-        <v>44718</v>
-      </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="91">
+        <v>44893</v>
+      </c>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="79">
         <f>O5</f>
-        <v>44725</v>
-      </c>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="91">
+        <v>44900</v>
+      </c>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="79">
         <f>V5</f>
-        <v>44732</v>
-      </c>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="91">
+        <v>44907</v>
+      </c>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="79">
         <f>AC5</f>
-        <v>44739</v>
-      </c>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="91">
+        <v>44914</v>
+      </c>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="79">
         <f>AJ5</f>
-        <v>44746</v>
-      </c>
-      <c r="AK4" s="92"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="91">
+        <v>44921</v>
+      </c>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="79">
         <f>AQ5</f>
-        <v>44753</v>
-      </c>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="91">
+        <v>44928</v>
+      </c>
+      <c r="AR4" s="80"/>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="81"/>
+      <c r="AX4" s="79">
         <f>AX5</f>
-        <v>44760</v>
-      </c>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="91">
+        <v>44935</v>
+      </c>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="81"/>
+      <c r="BE4" s="79">
         <f>BE5</f>
-        <v>44767</v>
-      </c>
-      <c r="BF4" s="92"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="91">
+        <v>44942</v>
+      </c>
+      <c r="BF4" s="80"/>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="81"/>
+      <c r="BL4" s="79">
         <f>BL5</f>
-        <v>44774</v>
-      </c>
-      <c r="BM4" s="92"/>
-      <c r="BN4" s="92"/>
-      <c r="BO4" s="92"/>
-      <c r="BP4" s="92"/>
-      <c r="BQ4" s="92"/>
-      <c r="BR4" s="93"/>
+        <v>44949</v>
+      </c>
+      <c r="BM4" s="80"/>
+      <c r="BN4" s="80"/>
+      <c r="BO4" s="80"/>
+      <c r="BP4" s="80"/>
+      <c r="BQ4" s="80"/>
+      <c r="BR4" s="81"/>
     </row>
     <row r="5" spans="1:70" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
       <c r="H5" s="39">
         <f>Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
-        <v>44718</v>
+        <v>44893</v>
       </c>
       <c r="I5" s="40">
         <f>H5+1</f>
-        <v>44719</v>
+        <v>44894</v>
       </c>
       <c r="J5" s="40">
         <f t="shared" ref="J5:AW5" si="0">I5+1</f>
-        <v>44720</v>
+        <v>44895</v>
       </c>
       <c r="K5" s="40">
         <f t="shared" si="0"/>
-        <v>44721</v>
+        <v>44896</v>
       </c>
       <c r="L5" s="40">
         <f t="shared" si="0"/>
-        <v>44722</v>
+        <v>44897</v>
       </c>
       <c r="M5" s="40">
         <f t="shared" si="0"/>
-        <v>44723</v>
+        <v>44898</v>
       </c>
       <c r="N5" s="41">
         <f t="shared" si="0"/>
-        <v>44724</v>
+        <v>44899</v>
       </c>
       <c r="O5" s="39">
         <f>N5+1</f>
-        <v>44725</v>
+        <v>44900</v>
       </c>
       <c r="P5" s="40">
         <f>O5+1</f>
-        <v>44726</v>
+        <v>44901</v>
       </c>
       <c r="Q5" s="40">
         <f t="shared" si="0"/>
-        <v>44727</v>
+        <v>44902</v>
       </c>
       <c r="R5" s="40">
         <f t="shared" si="0"/>
-        <v>44728</v>
+        <v>44903</v>
       </c>
       <c r="S5" s="40">
         <f t="shared" si="0"/>
-        <v>44729</v>
+        <v>44904</v>
       </c>
       <c r="T5" s="40">
         <f t="shared" si="0"/>
-        <v>44730</v>
+        <v>44905</v>
       </c>
       <c r="U5" s="41">
         <f t="shared" si="0"/>
-        <v>44731</v>
+        <v>44906</v>
       </c>
       <c r="V5" s="39">
         <f>U5+1</f>
-        <v>44732</v>
+        <v>44907</v>
       </c>
       <c r="W5" s="40">
         <f>V5+1</f>
-        <v>44733</v>
+        <v>44908</v>
       </c>
       <c r="X5" s="40">
         <f t="shared" si="0"/>
-        <v>44734</v>
+        <v>44909</v>
       </c>
       <c r="Y5" s="40">
         <f t="shared" si="0"/>
-        <v>44735</v>
+        <v>44910</v>
       </c>
       <c r="Z5" s="40">
         <f t="shared" si="0"/>
-        <v>44736</v>
+        <v>44911</v>
       </c>
       <c r="AA5" s="40">
         <f t="shared" si="0"/>
-        <v>44737</v>
+        <v>44912</v>
       </c>
       <c r="AB5" s="41">
         <f t="shared" si="0"/>
-        <v>44738</v>
+        <v>44913</v>
       </c>
       <c r="AC5" s="39">
         <f>AB5+1</f>
-        <v>44739</v>
+        <v>44914</v>
       </c>
       <c r="AD5" s="40">
         <f>AC5+1</f>
-        <v>44740</v>
+        <v>44915</v>
       </c>
       <c r="AE5" s="40">
         <f t="shared" si="0"/>
-        <v>44741</v>
+        <v>44916</v>
       </c>
       <c r="AF5" s="40">
         <f t="shared" si="0"/>
-        <v>44742</v>
+        <v>44917</v>
       </c>
       <c r="AG5" s="40">
         <f t="shared" si="0"/>
-        <v>44743</v>
+        <v>44918</v>
       </c>
       <c r="AH5" s="40">
         <f t="shared" si="0"/>
-        <v>44744</v>
+        <v>44919</v>
       </c>
       <c r="AI5" s="41">
         <f t="shared" si="0"/>
-        <v>44745</v>
+        <v>44920</v>
       </c>
       <c r="AJ5" s="39">
         <f>AI5+1</f>
-        <v>44746</v>
+        <v>44921</v>
       </c>
       <c r="AK5" s="40">
         <f>AJ5+1</f>
-        <v>44747</v>
+        <v>44922</v>
       </c>
       <c r="AL5" s="40">
         <f t="shared" si="0"/>
-        <v>44748</v>
+        <v>44923</v>
       </c>
       <c r="AM5" s="40">
         <f t="shared" si="0"/>
-        <v>44749</v>
+        <v>44924</v>
       </c>
       <c r="AN5" s="40">
         <f t="shared" si="0"/>
-        <v>44750</v>
+        <v>44925</v>
       </c>
       <c r="AO5" s="40">
         <f t="shared" si="0"/>
-        <v>44751</v>
+        <v>44926</v>
       </c>
       <c r="AP5" s="41">
         <f t="shared" si="0"/>
-        <v>44752</v>
+        <v>44927</v>
       </c>
       <c r="AQ5" s="39">
         <f>AP5+1</f>
-        <v>44753</v>
+        <v>44928</v>
       </c>
       <c r="AR5" s="40">
         <f>AQ5+1</f>
-        <v>44754</v>
+        <v>44929</v>
       </c>
       <c r="AS5" s="40">
         <f t="shared" si="0"/>
-        <v>44755</v>
+        <v>44930</v>
       </c>
       <c r="AT5" s="40">
         <f t="shared" si="0"/>
-        <v>44756</v>
+        <v>44931</v>
       </c>
       <c r="AU5" s="40">
         <f t="shared" si="0"/>
-        <v>44757</v>
+        <v>44932</v>
       </c>
       <c r="AV5" s="40">
         <f t="shared" si="0"/>
-        <v>44758</v>
+        <v>44933</v>
       </c>
       <c r="AW5" s="41">
         <f t="shared" si="0"/>
-        <v>44759</v>
+        <v>44934</v>
       </c>
       <c r="AX5" s="39">
         <f>AW5+1</f>
-        <v>44760</v>
+        <v>44935</v>
       </c>
       <c r="AY5" s="40">
         <f>AX5+1</f>
-        <v>44761</v>
+        <v>44936</v>
       </c>
       <c r="AZ5" s="40">
         <f t="shared" ref="AZ5:BD5" si="1">AY5+1</f>
-        <v>44762</v>
+        <v>44937</v>
       </c>
       <c r="BA5" s="40">
         <f t="shared" si="1"/>
-        <v>44763</v>
+        <v>44938</v>
       </c>
       <c r="BB5" s="40">
         <f t="shared" si="1"/>
-        <v>44764</v>
+        <v>44939</v>
       </c>
       <c r="BC5" s="40">
         <f t="shared" si="1"/>
-        <v>44765</v>
+        <v>44940</v>
       </c>
       <c r="BD5" s="41">
         <f t="shared" si="1"/>
-        <v>44766</v>
+        <v>44941</v>
       </c>
       <c r="BE5" s="39">
         <f>BD5+1</f>
-        <v>44767</v>
+        <v>44942</v>
       </c>
       <c r="BF5" s="40">
         <f>BE5+1</f>
-        <v>44768</v>
+        <v>44943</v>
       </c>
       <c r="BG5" s="40">
         <f t="shared" ref="BG5:BK5" si="2">BF5+1</f>
-        <v>44769</v>
+        <v>44944</v>
       </c>
       <c r="BH5" s="40">
         <f t="shared" si="2"/>
-        <v>44770</v>
+        <v>44945</v>
       </c>
       <c r="BI5" s="40">
         <f t="shared" si="2"/>
-        <v>44771</v>
+        <v>44946</v>
       </c>
       <c r="BJ5" s="40">
         <f t="shared" si="2"/>
-        <v>44772</v>
+        <v>44947</v>
       </c>
       <c r="BK5" s="41">
         <f t="shared" si="2"/>
-        <v>44773</v>
+        <v>44948</v>
       </c>
       <c r="BL5" s="39">
         <f>BK5+1</f>
-        <v>44774</v>
+        <v>44949</v>
       </c>
       <c r="BM5" s="40">
         <f>BL5+1</f>
-        <v>44775</v>
+        <v>44950</v>
       </c>
       <c r="BN5" s="40">
         <f t="shared" ref="BN5" si="3">BM5+1</f>
-        <v>44776</v>
+        <v>44951</v>
       </c>
       <c r="BO5" s="40">
         <f>BN5+1</f>
-        <v>44777</v>
+        <v>44952</v>
       </c>
       <c r="BP5" s="40">
         <f t="shared" ref="BP5" si="4">BO5+1</f>
-        <v>44778</v>
+        <v>44953</v>
       </c>
       <c r="BQ5" s="40">
         <f t="shared" ref="BQ5" si="5">BP5+1</f>
-        <v>44779</v>
+        <v>44954</v>
       </c>
       <c r="BR5" s="41">
         <f t="shared" ref="BR5" si="6">BQ5+1</f>
-        <v>44780</v>
+        <v>44955</v>
       </c>
     </row>
     <row r="6" spans="1:70" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2736,10 +2742,10 @@
       <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="87"/>
+      <c r="B7" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="90"/>
       <c r="D7" s="14"/>
       <c r="E7" s="45"/>
       <c r="F7" s="46"/>
@@ -2812,10 +2818,10 @@
       <c r="BR7" s="24"/>
     </row>
     <row r="8" spans="1:70" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="15">
         <v>1</v>
       </c>
@@ -2895,10 +2901,10 @@
       <c r="BR8" s="24"/>
     </row>
     <row r="9" spans="1:70" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="85"/>
+      <c r="B9" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="88"/>
       <c r="D9" s="15">
         <v>1</v>
       </c>
@@ -2978,10 +2984,10 @@
       <c r="BR9" s="24"/>
     </row>
     <row r="10" spans="1:70" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="85"/>
+      <c r="B10" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="88"/>
       <c r="D10" s="15">
         <v>1</v>
       </c>
@@ -3061,12 +3067,12 @@
       <c r="BR10" s="24"/>
     </row>
     <row r="11" spans="1:70" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="85"/>
+      <c r="B11" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="88"/>
       <c r="D11" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="47">
         <f>F10+1</f>
@@ -3145,10 +3151,10 @@
       <c r="BR11" s="24"/>
     </row>
     <row r="12" spans="1:70" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="85"/>
+      <c r="B12" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="88"/>
       <c r="D12" s="15">
         <v>1</v>
       </c>
@@ -3231,15 +3237,15 @@
       <c r="A13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="82"/>
+      <c r="B13" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="91"/>
       <c r="D13" s="12"/>
       <c r="E13" s="34"/>
       <c r="F13" s="35"/>
       <c r="G13" s="11" t="str">
-        <f t="shared" ref="G13:G44" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="G13:G45" si="11">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="H13" s="24"/>
@@ -3310,10 +3316,10 @@
       <c r="A14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="80"/>
+      <c r="B14" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="92"/>
       <c r="D14" s="13">
         <v>1</v>
       </c>
@@ -3396,10 +3402,10 @@
       <c r="A15" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="80"/>
+      <c r="B15" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="92"/>
       <c r="D15" s="13">
         <v>0.9</v>
       </c>
@@ -3481,10 +3487,10 @@
     </row>
     <row r="16" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28"/>
-      <c r="B16" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="80"/>
+      <c r="B16" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="92"/>
       <c r="D16" s="13">
         <v>1</v>
       </c>
@@ -3568,10 +3574,10 @@
       <c r="A17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="78"/>
+      <c r="B17" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="93"/>
       <c r="D17" s="16"/>
       <c r="E17" s="48"/>
       <c r="F17" s="49"/>
@@ -3645,10 +3651,10 @@
     </row>
     <row r="18" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28"/>
-      <c r="B18" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="79"/>
+      <c r="B18" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="94"/>
       <c r="D18" s="17">
         <v>1</v>
       </c>
@@ -3729,12 +3735,12 @@
     </row>
     <row r="19" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28"/>
-      <c r="B19" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="79"/>
+      <c r="B19" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="94"/>
       <c r="D19" s="17">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="50">
         <f>F18+1</f>
@@ -3814,12 +3820,12 @@
     </row>
     <row r="20" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28"/>
-      <c r="B20" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="79"/>
+      <c r="B20" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="94"/>
       <c r="D20" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E20" s="50">
         <f>F19+1</f>
@@ -3899,12 +3905,12 @@
     </row>
     <row r="21" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28"/>
-      <c r="B21" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="79"/>
+      <c r="B21" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="94"/>
       <c r="D21" s="17">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="E21" s="50">
         <f>F20+1</f>
@@ -3984,12 +3990,12 @@
     </row>
     <row r="22" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28"/>
-      <c r="B22" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="79"/>
+      <c r="B22" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="94"/>
       <c r="D22" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="50">
         <f>E21</f>
@@ -4000,7 +4006,7 @@
         <v>44741</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="11"/>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>8</v>
       </c>
       <c r="H22" s="24"/>
@@ -4069,21 +4075,25 @@
     </row>
     <row r="23" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28"/>
-      <c r="B23" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="76"/>
+      <c r="B23" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="78"/>
       <c r="D23" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E23" s="50">
-        <v>44749</v>
+        <f>F22</f>
+        <v>44741</v>
       </c>
       <c r="F23" s="50">
-        <f>E23+0</f>
-        <v>44749</v>
-      </c>
-      <c r="G23" s="11"/>
+        <f>E23+120</f>
+        <v>44861</v>
+      </c>
+      <c r="G23" s="11">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>121</v>
+      </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -4143,24 +4153,28 @@
       <c r="BL23" s="24"/>
       <c r="BM23" s="24"/>
       <c r="BN23" s="69"/>
-      <c r="BO23" s="97"/>
+      <c r="BO23" s="77"/>
       <c r="BP23" s="68"/>
       <c r="BQ23" s="24"/>
       <c r="BR23" s="24"/>
     </row>
     <row r="24" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28"/>
-      <c r="B24" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="11" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="B24" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="50">
+        <v>44875</v>
+      </c>
+      <c r="F24" s="50">
+        <f>E24+0</f>
+        <v>44875</v>
+      </c>
+      <c r="G24" s="11"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
@@ -4220,31 +4234,23 @@
       <c r="BL24" s="24"/>
       <c r="BM24" s="24"/>
       <c r="BN24" s="69"/>
-      <c r="BO24" s="70"/>
+      <c r="BO24" s="77"/>
       <c r="BP24" s="68"/>
       <c r="BQ24" s="24"/>
       <c r="BR24" s="24"/>
     </row>
     <row r="25" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28"/>
-      <c r="B25" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="55">
-        <v>0</v>
-      </c>
-      <c r="E25" s="56">
-        <f>F22+1</f>
-        <v>44742</v>
-      </c>
-      <c r="F25" s="56">
-        <f>E25+19</f>
-        <v>44761</v>
-      </c>
-      <c r="G25" s="11">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>20</v>
+      <c r="B25" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="95"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="11" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -4312,24 +4318,23 @@
     </row>
     <row r="26" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28"/>
-      <c r="B26" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="84"/>
+      <c r="B26" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="96"/>
       <c r="D26" s="55">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E26" s="56">
-        <f>F25+1</f>
-        <v>44762</v>
+        <v>44851</v>
       </c>
       <c r="F26" s="56">
-        <f>E26+19</f>
-        <v>44781</v>
+        <f>E26+14</f>
+        <v>44865</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="11"/>
-        <v>20</v>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>15</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -4397,24 +4402,24 @@
     </row>
     <row r="27" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28"/>
-      <c r="B27" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="84"/>
+      <c r="B27" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="96"/>
       <c r="D27" s="55">
         <v>0</v>
       </c>
       <c r="E27" s="56">
         <f>F26+1</f>
-        <v>44782</v>
+        <v>44866</v>
       </c>
       <c r="F27" s="56">
-        <f>E27+19</f>
-        <v>44801</v>
+        <f>E27+14</f>
+        <v>44880</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -4481,19 +4486,25 @@
       <c r="BR27" s="24"/>
     </row>
     <row r="28" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="11" t="str">
+      <c r="A28" s="28"/>
+      <c r="B28" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="96"/>
+      <c r="D28" s="55">
+        <v>0</v>
+      </c>
+      <c r="E28" s="56">
+        <f>F27+1</f>
+        <v>44881</v>
+      </c>
+      <c r="F28" s="56">
+        <f>E28+19</f>
+        <v>44900</v>
+      </c>
+      <c r="G28" s="11">
         <f t="shared" si="11"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -4560,24 +4571,19 @@
       <c r="BR28" s="24"/>
     </row>
     <row r="29" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="28"/>
-      <c r="B29" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="44">
-        <v>44757</v>
-      </c>
-      <c r="F29" s="44">
-        <f>E29+2</f>
-        <v>44759</v>
-      </c>
-      <c r="G29" s="11">
+      <c r="A29" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="91"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="11" t="str">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -4645,24 +4651,23 @@
     </row>
     <row r="30" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="28"/>
-      <c r="B30" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="80"/>
+      <c r="B30" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="92"/>
       <c r="D30" s="13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="44">
-        <f>F29+1</f>
-        <v>44760</v>
+        <v>44866</v>
       </c>
       <c r="F30" s="44">
-        <f>E30+13</f>
-        <v>44773</v>
+        <f>E30+2</f>
+        <v>44868</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -4730,24 +4735,24 @@
     </row>
     <row r="31" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="28"/>
-      <c r="B31" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="80"/>
+      <c r="B31" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="92"/>
       <c r="D31" s="13">
         <v>0</v>
       </c>
       <c r="E31" s="44">
         <f>F30+1</f>
-        <v>44774</v>
+        <v>44869</v>
       </c>
       <c r="F31" s="44">
-        <f>E31+29</f>
-        <v>44803</v>
+        <f>E31+13</f>
+        <v>44882</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -4815,24 +4820,24 @@
     </row>
     <row r="32" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28"/>
-      <c r="B32" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="80"/>
+      <c r="B32" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="92"/>
       <c r="D32" s="13">
         <v>0</v>
       </c>
       <c r="E32" s="44">
         <f>F31+1</f>
-        <v>44804</v>
+        <v>44883</v>
       </c>
       <c r="F32" s="44">
-        <f>E32+19</f>
-        <v>44823</v>
+        <f>E32+29</f>
+        <v>44912</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -4900,24 +4905,24 @@
     </row>
     <row r="33" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28"/>
-      <c r="B33" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="80"/>
+      <c r="B33" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="92"/>
       <c r="D33" s="13">
         <v>0</v>
       </c>
       <c r="E33" s="44">
         <f>F32+1</f>
-        <v>44824</v>
+        <v>44913</v>
       </c>
       <c r="F33" s="44">
-        <f>E33+6</f>
-        <v>44830</v>
+        <f>E33+19</f>
+        <v>44932</v>
       </c>
       <c r="G33" s="11">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -4985,14 +4990,25 @@
     </row>
     <row r="34" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="28"/>
-      <c r="B34" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="11"/>
+      <c r="B34" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="92"/>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="44">
+        <f>F33+1</f>
+        <v>44933</v>
+      </c>
+      <c r="F34" s="44">
+        <f>E34+6</f>
+        <v>44939</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
@@ -5059,25 +5075,14 @@
     </row>
     <row r="35" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="28"/>
-      <c r="B35" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="19">
-        <v>0</v>
-      </c>
-      <c r="E35" s="53">
-        <f>F33</f>
-        <v>44830</v>
-      </c>
-      <c r="F35" s="53">
-        <f>E35+1</f>
-        <v>44831</v>
-      </c>
-      <c r="G35" s="11">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
+      <c r="B35" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="97"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
@@ -5144,24 +5149,24 @@
     </row>
     <row r="36" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="28"/>
-      <c r="B36" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="77"/>
+      <c r="B36" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="98"/>
       <c r="D36" s="19">
         <v>0</v>
       </c>
       <c r="E36" s="53">
-        <f>F35</f>
-        <v>44831</v>
+        <f>F34</f>
+        <v>44939</v>
       </c>
       <c r="F36" s="53">
-        <f>E36+2</f>
-        <v>44833</v>
+        <f>E36+1</f>
+        <v>44940</v>
       </c>
       <c r="G36" s="11">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5229,20 +5234,20 @@
     </row>
     <row r="37" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="28"/>
-      <c r="B37" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="77"/>
+      <c r="B37" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="98"/>
       <c r="D37" s="19">
         <v>0</v>
       </c>
       <c r="E37" s="53">
         <f>F36</f>
-        <v>44833</v>
+        <v>44940</v>
       </c>
       <c r="F37" s="53">
         <f>E37+2</f>
-        <v>44835</v>
+        <v>44942</v>
       </c>
       <c r="G37" s="11">
         <f t="shared" si="11"/>
@@ -5314,24 +5319,24 @@
     </row>
     <row r="38" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28"/>
-      <c r="B38" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="77"/>
+      <c r="B38" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="98"/>
       <c r="D38" s="19">
         <v>0</v>
       </c>
       <c r="E38" s="53">
         <f>F37</f>
-        <v>44835</v>
+        <v>44942</v>
       </c>
       <c r="F38" s="53">
-        <f>E38+1</f>
-        <v>44836</v>
+        <f>E38+2</f>
+        <v>44944</v>
       </c>
       <c r="G38" s="11">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -5399,14 +5404,25 @@
     </row>
     <row r="39" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="28"/>
-      <c r="B39" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="11"/>
+      <c r="B39" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="98"/>
+      <c r="D39" s="19">
+        <v>0</v>
+      </c>
+      <c r="E39" s="53">
+        <f>F38</f>
+        <v>44944</v>
+      </c>
+      <c r="F39" s="53">
+        <f>E39+1</f>
+        <v>44945</v>
+      </c>
+      <c r="G39" s="11">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>2</v>
+      </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
@@ -5473,25 +5489,14 @@
     </row>
     <row r="40" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="28"/>
-      <c r="B40" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="17">
-        <v>0</v>
-      </c>
-      <c r="E40" s="50">
-        <f>F38+1</f>
-        <v>44837</v>
-      </c>
-      <c r="F40" s="50">
-        <f>E40+4</f>
-        <v>44841</v>
-      </c>
-      <c r="G40" s="11">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>5</v>
-      </c>
+      <c r="B40" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="93"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="11"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
@@ -5558,24 +5563,24 @@
     </row>
     <row r="41" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="28"/>
-      <c r="B41" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="79"/>
+      <c r="B41" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="94"/>
       <c r="D41" s="17">
         <v>0</v>
       </c>
       <c r="E41" s="50">
-        <f>F40+1</f>
-        <v>44842</v>
+        <f>F39+1</f>
+        <v>44946</v>
       </c>
       <c r="F41" s="50">
-        <f>E41+0</f>
-        <v>44842</v>
+        <f>E41+4</f>
+        <v>44950</v>
       </c>
       <c r="G41" s="11">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
@@ -5643,23 +5648,23 @@
     </row>
     <row r="42" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="28"/>
-      <c r="B42" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="79"/>
+      <c r="B42" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="94"/>
       <c r="D42" s="17">
         <v>0</v>
       </c>
       <c r="E42" s="50">
-        <f>F41+10</f>
-        <v>44852</v>
+        <f>F41+1</f>
+        <v>44951</v>
       </c>
       <c r="F42" s="50">
         <f>E42+0</f>
-        <v>44852</v>
+        <v>44951</v>
       </c>
       <c r="G42" s="11">
-        <f t="shared" si="11"/>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>1</v>
       </c>
       <c r="H42" s="24"/>
@@ -5728,12 +5733,25 @@
     </row>
     <row r="43" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="28"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="11"/>
+      <c r="B43" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="94"/>
+      <c r="D43" s="17">
+        <v>0</v>
+      </c>
+      <c r="E43" s="50">
+        <f>F42+10</f>
+        <v>44961</v>
+      </c>
+      <c r="F43" s="50">
+        <f>E43+0</f>
+        <v>44961</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
@@ -5799,99 +5817,200 @@
       <c r="BR43" s="24"/>
     </row>
     <row r="44" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="24"/>
+      <c r="AB44" s="24"/>
+      <c r="AC44" s="24"/>
+      <c r="AD44" s="24"/>
+      <c r="AE44" s="24"/>
+      <c r="AF44" s="24"/>
+      <c r="AG44" s="24"/>
+      <c r="AH44" s="24"/>
+      <c r="AI44" s="24"/>
+      <c r="AJ44" s="24"/>
+      <c r="AK44" s="24"/>
+      <c r="AL44" s="24"/>
+      <c r="AM44" s="24"/>
+      <c r="AN44" s="24"/>
+      <c r="AO44" s="24"/>
+      <c r="AP44" s="24"/>
+      <c r="AQ44" s="24"/>
+      <c r="AR44" s="24"/>
+      <c r="AS44" s="24"/>
+      <c r="AT44" s="24"/>
+      <c r="AU44" s="24"/>
+      <c r="AV44" s="24"/>
+      <c r="AW44" s="24"/>
+      <c r="AX44" s="24"/>
+      <c r="AY44" s="24"/>
+      <c r="AZ44" s="24"/>
+      <c r="BA44" s="24"/>
+      <c r="BB44" s="24"/>
+      <c r="BC44" s="24"/>
+      <c r="BD44" s="24"/>
+      <c r="BE44" s="24"/>
+      <c r="BF44" s="24"/>
+      <c r="BG44" s="24"/>
+      <c r="BH44" s="24"/>
+      <c r="BI44" s="24"/>
+      <c r="BJ44" s="24"/>
+      <c r="BK44" s="24"/>
+      <c r="BL44" s="24"/>
+      <c r="BM44" s="24"/>
+      <c r="BN44" s="69"/>
+      <c r="BO44" s="70"/>
+      <c r="BP44" s="68"/>
+      <c r="BQ44" s="24"/>
+      <c r="BR44" s="24"/>
+    </row>
+    <row r="45" spans="1:70" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="23" t="str">
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="23" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="26"/>
-      <c r="AL44" s="26"/>
-      <c r="AM44" s="26"/>
-      <c r="AN44" s="26"/>
-      <c r="AO44" s="26"/>
-      <c r="AP44" s="26"/>
-      <c r="AQ44" s="26"/>
-      <c r="AR44" s="26"/>
-      <c r="AS44" s="26"/>
-      <c r="AT44" s="26"/>
-      <c r="AU44" s="26"/>
-      <c r="AV44" s="26"/>
-      <c r="AW44" s="26"/>
-      <c r="AX44" s="26"/>
-      <c r="AY44" s="26"/>
-      <c r="AZ44" s="26"/>
-      <c r="BA44" s="26"/>
-      <c r="BB44" s="26"/>
-      <c r="BC44" s="26"/>
-      <c r="BD44" s="26"/>
-      <c r="BE44" s="26"/>
-      <c r="BF44" s="26"/>
-      <c r="BG44" s="26"/>
-      <c r="BH44" s="26"/>
-      <c r="BI44" s="26"/>
-      <c r="BJ44" s="26"/>
-      <c r="BK44" s="26"/>
-      <c r="BL44" s="26"/>
-      <c r="BM44" s="26"/>
-      <c r="BN44" s="72"/>
-      <c r="BO44" s="73"/>
-      <c r="BP44" s="71"/>
-      <c r="BQ44" s="26"/>
-      <c r="BR44" s="26"/>
-    </row>
-    <row r="46" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46"/>
-      <c r="C46" s="8"/>
-      <c r="F46" s="30"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="26"/>
+      <c r="AE45" s="26"/>
+      <c r="AF45" s="26"/>
+      <c r="AG45" s="26"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="26"/>
+      <c r="AK45" s="26"/>
+      <c r="AL45" s="26"/>
+      <c r="AM45" s="26"/>
+      <c r="AN45" s="26"/>
+      <c r="AO45" s="26"/>
+      <c r="AP45" s="26"/>
+      <c r="AQ45" s="26"/>
+      <c r="AR45" s="26"/>
+      <c r="AS45" s="26"/>
+      <c r="AT45" s="26"/>
+      <c r="AU45" s="26"/>
+      <c r="AV45" s="26"/>
+      <c r="AW45" s="26"/>
+      <c r="AX45" s="26"/>
+      <c r="AY45" s="26"/>
+      <c r="AZ45" s="26"/>
+      <c r="BA45" s="26"/>
+      <c r="BB45" s="26"/>
+      <c r="BC45" s="26"/>
+      <c r="BD45" s="26"/>
+      <c r="BE45" s="26"/>
+      <c r="BF45" s="26"/>
+      <c r="BG45" s="26"/>
+      <c r="BH45" s="26"/>
+      <c r="BI45" s="26"/>
+      <c r="BJ45" s="26"/>
+      <c r="BK45" s="26"/>
+      <c r="BL45" s="26"/>
+      <c r="BM45" s="26"/>
+      <c r="BN45" s="72"/>
+      <c r="BO45" s="73"/>
+      <c r="BP45" s="71"/>
+      <c r="BQ45" s="26"/>
+      <c r="BR45" s="26"/>
     </row>
     <row r="47" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47"/>
-      <c r="C47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="F47" s="30"/>
+    </row>
+    <row r="48" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48"/>
+      <c r="C48" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="BL4:BR4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="AJ4:AP4"/>
@@ -5899,43 +6018,14 @@
     <mergeCell ref="AX4:BD4"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="BL4:BR4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D43:D44 D25:D27 D13:D23">
+  <conditionalFormatting sqref="D44:D45 D26:D28 D13:D24">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5949,12 +6039,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BR44">
+  <conditionalFormatting sqref="H5:BR45">
     <cfRule type="expression" dxfId="2" priority="44">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BR44">
+  <conditionalFormatting sqref="H7:BR45">
     <cfRule type="expression" dxfId="1" priority="38">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
@@ -5962,7 +6052,7 @@
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D38">
+  <conditionalFormatting sqref="D35:D39">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5976,7 +6066,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D33">
+  <conditionalFormatting sqref="D29:D34">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5990,7 +6080,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D42">
+  <conditionalFormatting sqref="D40:D43">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6004,7 +6094,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+  <conditionalFormatting sqref="D25">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6062,7 +6152,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D43:D44 D25:D27 D13:D23</xm:sqref>
+          <xm:sqref>D44:D45 D26:D28 D13:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA2947BC-B1C9-47B5-8F9A-8C52A3D7A76A}">
@@ -6077,7 +6167,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D34:D38</xm:sqref>
+          <xm:sqref>D35:D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ADEDD167-DD83-4BF0-A90D-37F3F6C69EA2}">
@@ -6092,7 +6182,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D28:D33</xm:sqref>
+          <xm:sqref>D29:D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{482AC7A9-4381-4671-8BC2-3F96B03A7C1C}">
@@ -6107,7 +6197,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D39:D42</xm:sqref>
+          <xm:sqref>D40:D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CB49FACF-4754-47A1-9391-125CD857A095}">
@@ -6122,7 +6212,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D24</xm:sqref>
+          <xm:sqref>D25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6D28A95A-46EF-4DF7-B76C-690B87E70FFE}">
